--- a/datasheets/set/recursions_s_graph_2.xlsx
+++ b/datasheets/set/recursions_s_graph_2.xlsx
@@ -2147,7 +2147,7 @@
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="n">
-        <v>8192</v>
+        <v>7963</v>
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
@@ -2158,7 +2158,7 @@
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
-        <v>8192</v>
+        <v>8204</v>
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
@@ -2169,7 +2169,7 @@
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="n">
-        <v>8192</v>
+        <v>8200</v>
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
@@ -2180,7 +2180,7 @@
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="n">
-        <v>7654</v>
+        <v>8196</v>
       </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
@@ -2191,7 +2191,7 @@
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="n">
-        <v>8192</v>
+        <v>8195</v>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
@@ -2202,7 +2202,7 @@
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="n">
-        <v>8192</v>
+        <v>7256</v>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
@@ -2213,7 +2213,7 @@
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="n">
-        <v>8192</v>
+        <v>7533</v>
       </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
@@ -2224,7 +2224,7 @@
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="n">
-        <v>8197</v>
+        <v>8196</v>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
@@ -2235,7 +2235,7 @@
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="n">
-        <v>8200</v>
+        <v>8192</v>
       </c>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
@@ -2257,7 +2257,7 @@
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="n">
-        <v>6996</v>
+        <v>8192</v>
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
@@ -2279,7 +2279,7 @@
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="n">
-        <v>7696</v>
+        <v>7421</v>
       </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
@@ -2290,7 +2290,7 @@
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="n">
-        <v>7548</v>
+        <v>8200</v>
       </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
@@ -2323,7 +2323,7 @@
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="n">
-        <v>8192</v>
+        <v>8202</v>
       </c>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
@@ -2334,7 +2334,7 @@
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="n">
-        <v>8192</v>
+        <v>8196</v>
       </c>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
@@ -2356,7 +2356,7 @@
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="n">
-        <v>8201</v>
+        <v>8192</v>
       </c>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
@@ -2367,7 +2367,7 @@
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="n">
-        <v>7109</v>
+        <v>7460</v>
       </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
@@ -2389,7 +2389,7 @@
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="n">
-        <v>8196</v>
+        <v>8192</v>
       </c>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
@@ -2400,7 +2400,7 @@
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="n">
-        <v>7878</v>
+        <v>8203</v>
       </c>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
@@ -2411,7 +2411,7 @@
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="n">
-        <v>8192</v>
+        <v>8199</v>
       </c>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
@@ -2422,7 +2422,7 @@
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="n">
-        <v>8161</v>
+        <v>8192</v>
       </c>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="n">
-        <v>8195</v>
+        <v>8202</v>
       </c>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
@@ -2444,7 +2444,7 @@
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
@@ -2455,7 +2455,7 @@
       <c r="B182" t="inlineStr"/>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="n">
-        <v>8192</v>
+        <v>8196</v>
       </c>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
@@ -2466,7 +2466,7 @@
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="n">
-        <v>8196</v>
+        <v>8048</v>
       </c>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
@@ -2477,7 +2477,7 @@
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="n">
-        <v>7492</v>
+        <v>8192</v>
       </c>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
@@ -2488,7 +2488,7 @@
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="n">
-        <v>8192</v>
+        <v>8200</v>
       </c>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
@@ -2499,7 +2499,7 @@
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="n">
-        <v>7667</v>
+        <v>8201</v>
       </c>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
@@ -2510,7 +2510,7 @@
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="n">
-        <v>6966</v>
+        <v>8192</v>
       </c>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
@@ -2521,7 +2521,7 @@
       <c r="B188" t="inlineStr"/>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="n">
-        <v>8202</v>
+        <v>8192</v>
       </c>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
@@ -2532,7 +2532,7 @@
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="n">
-        <v>8192</v>
+        <v>8202</v>
       </c>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
@@ -2543,7 +2543,7 @@
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="n">
-        <v>8197</v>
+        <v>8192</v>
       </c>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
@@ -2609,7 +2609,7 @@
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="n">
-        <v>8203</v>
+        <v>7742</v>
       </c>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
@@ -2620,7 +2620,7 @@
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="n">
-        <v>8192</v>
+        <v>8204</v>
       </c>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
@@ -2631,7 +2631,7 @@
       <c r="B198" t="inlineStr"/>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="n">
-        <v>8192</v>
+        <v>6607</v>
       </c>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
@@ -2642,7 +2642,7 @@
       <c r="B199" t="inlineStr"/>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="n">
-        <v>8198</v>
+        <v>7671</v>
       </c>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
@@ -2653,7 +2653,7 @@
       <c r="B200" t="inlineStr"/>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="n">
-        <v>8192</v>
+        <v>8196</v>
       </c>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
@@ -2664,7 +2664,7 @@
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="n">
-        <v>8192</v>
+        <v>8196</v>
       </c>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr"/>
@@ -2676,7 +2676,7 @@
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="n">
-        <v>8202</v>
+        <v>8192</v>
       </c>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr"/>
@@ -2687,7 +2687,7 @@
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="n">
-        <v>6558</v>
+        <v>8192</v>
       </c>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
@@ -2709,7 +2709,7 @@
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="n">
-        <v>7722</v>
+        <v>8192</v>
       </c>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr"/>
@@ -2720,7 +2720,7 @@
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="n">
-        <v>7132</v>
+        <v>8192</v>
       </c>
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr"/>
@@ -2731,7 +2731,7 @@
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="n">
-        <v>6145</v>
+        <v>8200</v>
       </c>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
@@ -2753,7 +2753,7 @@
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="n">
-        <v>8207</v>
+        <v>7801</v>
       </c>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
@@ -2775,7 +2775,7 @@
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="n">
-        <v>8200</v>
+        <v>8192</v>
       </c>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr"/>
@@ -2786,7 +2786,7 @@
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="n">
-        <v>8201</v>
+        <v>8198</v>
       </c>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr"/>
@@ -2797,7 +2797,7 @@
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="n">
-        <v>8192</v>
+        <v>8203</v>
       </c>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
@@ -2819,7 +2819,7 @@
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="n">
-        <v>8203</v>
+        <v>8192</v>
       </c>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
@@ -2830,7 +2830,7 @@
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="n">
-        <v>6556</v>
+        <v>8201</v>
       </c>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr"/>
@@ -2841,7 +2841,7 @@
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="n">
-        <v>8192</v>
+        <v>6028</v>
       </c>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
@@ -2852,7 +2852,7 @@
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="n">
-        <v>8022</v>
+        <v>8192</v>
       </c>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
@@ -2863,7 +2863,7 @@
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="n">
-        <v>8192</v>
+        <v>6772</v>
       </c>
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr"/>
@@ -2874,7 +2874,7 @@
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="n">
-        <v>6523</v>
+        <v>8192</v>
       </c>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
@@ -2885,7 +2885,7 @@
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="n">
-        <v>8229</v>
+        <v>6859</v>
       </c>
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr"/>
@@ -2896,7 +2896,7 @@
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="n">
-        <v>8198</v>
+        <v>7762</v>
       </c>
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr"/>
@@ -2907,7 +2907,7 @@
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="n">
-        <v>8205</v>
+        <v>8206</v>
       </c>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr"/>
@@ -2918,7 +2918,7 @@
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="n">
-        <v>8192</v>
+        <v>7251</v>
       </c>
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
@@ -2929,7 +2929,7 @@
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="n">
-        <v>8192</v>
+        <v>8198</v>
       </c>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr"/>
@@ -2973,7 +2973,7 @@
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="n">
-        <v>8065</v>
+        <v>7085</v>
       </c>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
@@ -2984,7 +2984,7 @@
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="n">
-        <v>8192</v>
+        <v>8066</v>
       </c>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr"/>
@@ -2995,7 +2995,7 @@
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="n">
-        <v>8205</v>
+        <v>8192</v>
       </c>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr"/>
@@ -3006,7 +3006,7 @@
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="n">
-        <v>7856</v>
+        <v>8192</v>
       </c>
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr"/>
@@ -3017,7 +3017,7 @@
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="n">
-        <v>7308</v>
+        <v>7680</v>
       </c>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr"/>
@@ -3028,7 +3028,7 @@
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="n">
-        <v>8192</v>
+        <v>8199</v>
       </c>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr"/>
@@ -3039,7 +3039,7 @@
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="n">
-        <v>8192</v>
+        <v>6099</v>
       </c>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr"/>
@@ -3050,7 +3050,7 @@
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr"/>
       <c r="E236" t="n">
-        <v>8192</v>
+        <v>7951</v>
       </c>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr"/>
@@ -3061,7 +3061,7 @@
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="n">
-        <v>7423</v>
+        <v>8192</v>
       </c>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr"/>
@@ -3072,7 +3072,7 @@
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="n">
-        <v>8192</v>
+        <v>6558</v>
       </c>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr"/>
@@ -3083,7 +3083,7 @@
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="n">
-        <v>8192</v>
+        <v>8203</v>
       </c>
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="inlineStr"/>
@@ -3094,7 +3094,7 @@
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="F240" t="inlineStr"/>
       <c r="G240" t="inlineStr"/>
@@ -3105,7 +3105,7 @@
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="n">
-        <v>8217</v>
+        <v>7717</v>
       </c>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="inlineStr"/>
@@ -3116,7 +3116,7 @@
       <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="n">
-        <v>8102</v>
+        <v>6471</v>
       </c>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr"/>
@@ -3127,7 +3127,7 @@
       <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="n">
-        <v>6501</v>
+        <v>8192</v>
       </c>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr"/>
@@ -3138,7 +3138,7 @@
       <c r="C244" t="inlineStr"/>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="n">
-        <v>6222</v>
+        <v>8192</v>
       </c>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="inlineStr"/>
@@ -3160,7 +3160,7 @@
       <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="n">
-        <v>6313</v>
+        <v>8198</v>
       </c>
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="inlineStr"/>
@@ -3182,7 +3182,7 @@
       <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="n">
-        <v>8213</v>
+        <v>8216</v>
       </c>
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="inlineStr"/>
@@ -3193,7 +3193,7 @@
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="n">
-        <v>8192</v>
+        <v>7116</v>
       </c>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="inlineStr"/>
@@ -3204,7 +3204,7 @@
       <c r="C250" t="inlineStr"/>
       <c r="D250" t="inlineStr"/>
       <c r="E250" t="n">
-        <v>8192</v>
+        <v>7684</v>
       </c>
       <c r="F250" t="inlineStr"/>
       <c r="G250" t="inlineStr"/>
@@ -3227,7 +3227,7 @@
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="n">
-        <v>5933</v>
+        <v>8274</v>
       </c>
       <c r="G252" t="inlineStr"/>
     </row>
@@ -3238,7 +3238,7 @@
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="n">
-        <v>6382</v>
+        <v>6374</v>
       </c>
       <c r="G253" t="inlineStr"/>
     </row>
@@ -3249,7 +3249,7 @@
       <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="n">
-        <v>6106</v>
+        <v>6224</v>
       </c>
       <c r="G254" t="inlineStr"/>
     </row>
@@ -3260,7 +3260,7 @@
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="n">
-        <v>6030</v>
+        <v>6245</v>
       </c>
       <c r="G255" t="inlineStr"/>
     </row>
@@ -3271,7 +3271,7 @@
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="n">
-        <v>8285</v>
+        <v>3837</v>
       </c>
       <c r="G256" t="inlineStr"/>
     </row>
@@ -3282,7 +3282,7 @@
       <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="n">
-        <v>6123</v>
+        <v>6264</v>
       </c>
       <c r="G257" t="inlineStr"/>
     </row>
@@ -3293,7 +3293,7 @@
       <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="n">
-        <v>6347</v>
+        <v>8220</v>
       </c>
       <c r="G258" t="inlineStr"/>
     </row>
@@ -3304,7 +3304,7 @@
       <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="n">
-        <v>6228</v>
+        <v>6016</v>
       </c>
       <c r="G259" t="inlineStr"/>
     </row>
@@ -3315,7 +3315,7 @@
       <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="n">
-        <v>6234</v>
+        <v>4092</v>
       </c>
       <c r="G260" t="inlineStr"/>
     </row>
@@ -3326,7 +3326,7 @@
       <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="n">
-        <v>4065</v>
+        <v>6102</v>
       </c>
       <c r="G261" t="inlineStr"/>
     </row>
@@ -3337,7 +3337,7 @@
       <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="n">
-        <v>4092</v>
+        <v>6007</v>
       </c>
       <c r="G262" t="inlineStr"/>
     </row>
@@ -3348,7 +3348,7 @@
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="n">
-        <v>5631</v>
+        <v>6536</v>
       </c>
       <c r="G263" t="inlineStr"/>
     </row>
@@ -3359,7 +3359,7 @@
       <c r="D264" t="inlineStr"/>
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="n">
-        <v>6080</v>
+        <v>6152</v>
       </c>
       <c r="G264" t="inlineStr"/>
     </row>
@@ -3370,7 +3370,7 @@
       <c r="D265" t="inlineStr"/>
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="n">
-        <v>6184</v>
+        <v>6198</v>
       </c>
       <c r="G265" t="inlineStr"/>
     </row>
@@ -3381,7 +3381,7 @@
       <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="n">
-        <v>6382</v>
+        <v>5887</v>
       </c>
       <c r="G266" t="inlineStr"/>
     </row>
@@ -3392,7 +3392,7 @@
       <c r="D267" t="inlineStr"/>
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="n">
-        <v>6202</v>
+        <v>4015</v>
       </c>
       <c r="G267" t="inlineStr"/>
     </row>
@@ -3403,7 +3403,7 @@
       <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="n">
-        <v>6112</v>
+        <v>4027</v>
       </c>
       <c r="G268" t="inlineStr"/>
     </row>
@@ -3414,7 +3414,7 @@
       <c r="D269" t="inlineStr"/>
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="n">
-        <v>6329</v>
+        <v>8508</v>
       </c>
       <c r="G269" t="inlineStr"/>
     </row>
@@ -3425,7 +3425,7 @@
       <c r="D270" t="inlineStr"/>
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="n">
-        <v>8245</v>
+        <v>6398</v>
       </c>
       <c r="G270" t="inlineStr"/>
     </row>
@@ -3436,7 +3436,7 @@
       <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="n">
-        <v>6192</v>
+        <v>8220</v>
       </c>
       <c r="G271" t="inlineStr"/>
     </row>
@@ -3447,7 +3447,7 @@
       <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="n">
-        <v>5982</v>
+        <v>6401</v>
       </c>
       <c r="G272" t="inlineStr"/>
     </row>
@@ -3458,7 +3458,7 @@
       <c r="D273" t="inlineStr"/>
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="n">
-        <v>6330</v>
+        <v>6112</v>
       </c>
       <c r="G273" t="inlineStr"/>
     </row>
@@ -3469,7 +3469,7 @@
       <c r="D274" t="inlineStr"/>
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="n">
-        <v>4020</v>
+        <v>6203</v>
       </c>
       <c r="G274" t="inlineStr"/>
     </row>
@@ -3480,7 +3480,7 @@
       <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="n">
-        <v>4090</v>
+        <v>6303</v>
       </c>
       <c r="G275" t="inlineStr"/>
     </row>
@@ -3491,7 +3491,7 @@
       <c r="D276" t="inlineStr"/>
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="n">
-        <v>8535</v>
+        <v>6119</v>
       </c>
       <c r="G276" t="inlineStr"/>
     </row>
@@ -3502,7 +3502,7 @@
       <c r="D277" t="inlineStr"/>
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="n">
-        <v>6019</v>
+        <v>6015</v>
       </c>
       <c r="G277" t="inlineStr"/>
     </row>
@@ -3513,7 +3513,7 @@
       <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="n">
-        <v>6041</v>
+        <v>6136</v>
       </c>
       <c r="G278" t="inlineStr"/>
     </row>
@@ -3524,7 +3524,7 @@
       <c r="D279" t="inlineStr"/>
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="n">
-        <v>5879</v>
+        <v>6210</v>
       </c>
       <c r="G279" t="inlineStr"/>
     </row>
@@ -3535,7 +3535,7 @@
       <c r="D280" t="inlineStr"/>
       <c r="E280" t="inlineStr"/>
       <c r="F280" t="n">
-        <v>3947</v>
+        <v>6192</v>
       </c>
       <c r="G280" t="inlineStr"/>
     </row>
@@ -3546,7 +3546,7 @@
       <c r="D281" t="inlineStr"/>
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="n">
-        <v>8061</v>
+        <v>6443</v>
       </c>
       <c r="G281" t="inlineStr"/>
     </row>
@@ -3557,7 +3557,7 @@
       <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="n">
-        <v>8299</v>
+        <v>6064</v>
       </c>
       <c r="G282" t="inlineStr"/>
     </row>
@@ -3568,7 +3568,7 @@
       <c r="D283" t="inlineStr"/>
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="n">
-        <v>3570</v>
+        <v>8272</v>
       </c>
       <c r="G283" t="inlineStr"/>
     </row>
@@ -3579,7 +3579,7 @@
       <c r="D284" t="inlineStr"/>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="n">
-        <v>4074</v>
+        <v>8277</v>
       </c>
       <c r="G284" t="inlineStr"/>
     </row>
@@ -3590,7 +3590,7 @@
       <c r="D285" t="inlineStr"/>
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="n">
-        <v>6139</v>
+        <v>4079</v>
       </c>
       <c r="G285" t="inlineStr"/>
     </row>
@@ -3601,7 +3601,7 @@
       <c r="D286" t="inlineStr"/>
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="n">
-        <v>6554</v>
+        <v>5880</v>
       </c>
       <c r="G286" t="inlineStr"/>
     </row>
@@ -3612,7 +3612,7 @@
       <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="n">
-        <v>6193</v>
+        <v>6002</v>
       </c>
       <c r="G287" t="inlineStr"/>
     </row>
@@ -3623,7 +3623,7 @@
       <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="n">
-        <v>6136</v>
+        <v>6137</v>
       </c>
       <c r="G288" t="inlineStr"/>
     </row>
@@ -3634,7 +3634,7 @@
       <c r="D289" t="inlineStr"/>
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="n">
-        <v>7861</v>
+        <v>6143</v>
       </c>
       <c r="G289" t="inlineStr"/>
     </row>
@@ -3645,7 +3645,7 @@
       <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="n">
-        <v>6279</v>
+        <v>6069</v>
       </c>
       <c r="G290" t="inlineStr"/>
     </row>
@@ -3656,7 +3656,7 @@
       <c r="D291" t="inlineStr"/>
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="n">
-        <v>8431</v>
+        <v>6290</v>
       </c>
       <c r="G291" t="inlineStr"/>
     </row>
@@ -3667,7 +3667,7 @@
       <c r="D292" t="inlineStr"/>
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="n">
-        <v>5960</v>
+        <v>5975</v>
       </c>
       <c r="G292" t="inlineStr"/>
     </row>
@@ -3678,7 +3678,7 @@
       <c r="D293" t="inlineStr"/>
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="n">
-        <v>6195</v>
+        <v>6247</v>
       </c>
       <c r="G293" t="inlineStr"/>
     </row>
@@ -3689,7 +3689,7 @@
       <c r="D294" t="inlineStr"/>
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="n">
-        <v>6259</v>
+        <v>3956</v>
       </c>
       <c r="G294" t="inlineStr"/>
     </row>
@@ -3700,7 +3700,7 @@
       <c r="D295" t="inlineStr"/>
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="n">
-        <v>6539</v>
+        <v>8433</v>
       </c>
       <c r="G295" t="inlineStr"/>
     </row>
@@ -3711,7 +3711,7 @@
       <c r="D296" t="inlineStr"/>
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="n">
-        <v>6423</v>
+        <v>6095</v>
       </c>
       <c r="G296" t="inlineStr"/>
     </row>
@@ -3722,7 +3722,7 @@
       <c r="D297" t="inlineStr"/>
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="n">
-        <v>6167</v>
+        <v>6144</v>
       </c>
       <c r="G297" t="inlineStr"/>
     </row>
@@ -3733,7 +3733,7 @@
       <c r="D298" t="inlineStr"/>
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="n">
-        <v>5952</v>
+        <v>6364</v>
       </c>
       <c r="G298" t="inlineStr"/>
     </row>
@@ -3744,7 +3744,7 @@
       <c r="D299" t="inlineStr"/>
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="n">
-        <v>6205</v>
+        <v>5890</v>
       </c>
       <c r="G299" t="inlineStr"/>
     </row>
@@ -3755,7 +3755,7 @@
       <c r="D300" t="inlineStr"/>
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="n">
-        <v>6359</v>
+        <v>6111</v>
       </c>
       <c r="G300" t="inlineStr"/>
     </row>
@@ -3766,7 +3766,7 @@
       <c r="D301" t="inlineStr"/>
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="n">
-        <v>5979</v>
+        <v>6008</v>
       </c>
       <c r="G301" t="inlineStr"/>
     </row>
@@ -3778,7 +3778,7 @@
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="inlineStr"/>
       <c r="G302" t="n">
-        <v>1898</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="303">
@@ -3789,7 +3789,7 @@
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr"/>
       <c r="G303" t="n">
-        <v>1493</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="304">
@@ -3800,7 +3800,7 @@
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr"/>
       <c r="G304" t="n">
-        <v>3280</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="305">
@@ -3811,7 +3811,7 @@
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr"/>
       <c r="G305" t="n">
-        <v>1855</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="306">
@@ -3822,7 +3822,7 @@
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr"/>
       <c r="G306" t="n">
-        <v>2836</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="307">
@@ -3833,7 +3833,7 @@
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr"/>
       <c r="G307" t="n">
-        <v>2729</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="308">
@@ -3844,7 +3844,7 @@
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr"/>
       <c r="G308" t="n">
-        <v>2836</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="309">
@@ -3855,7 +3855,7 @@
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="inlineStr"/>
       <c r="G309" t="n">
-        <v>1533</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="310">
@@ -3866,7 +3866,7 @@
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr"/>
       <c r="G310" t="n">
-        <v>1718</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="311">
@@ -3877,7 +3877,7 @@
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr"/>
       <c r="G311" t="n">
-        <v>1908</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="312">
@@ -3888,7 +3888,7 @@
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr"/>
       <c r="G312" t="n">
-        <v>2713</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="313">
@@ -3899,7 +3899,7 @@
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr"/>
       <c r="G313" t="n">
-        <v>1907</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="314">
@@ -3910,7 +3910,7 @@
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr"/>
       <c r="G314" t="n">
-        <v>964</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="315">
@@ -3921,7 +3921,7 @@
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr"/>
       <c r="G315" t="n">
-        <v>1411</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="316">
@@ -3932,7 +3932,7 @@
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr"/>
       <c r="G316" t="n">
-        <v>3244</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="317">
@@ -3943,7 +3943,7 @@
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr"/>
       <c r="G317" t="n">
-        <v>1787</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="318">
@@ -3954,7 +3954,7 @@
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr"/>
       <c r="G318" t="n">
-        <v>2816</v>
+        <v>996</v>
       </c>
     </row>
     <row r="319">
@@ -3965,7 +3965,7 @@
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr"/>
       <c r="G319" t="n">
-        <v>1952</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="320">
@@ -3976,7 +3976,7 @@
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr"/>
       <c r="G320" t="n">
-        <v>2972</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="321">
@@ -3987,7 +3987,7 @@
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr"/>
       <c r="G321" t="n">
-        <v>1500</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="322">
@@ -3998,7 +3998,7 @@
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr"/>
       <c r="G322" t="n">
-        <v>514</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="323">
@@ -4009,7 +4009,7 @@
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr"/>
       <c r="G323" t="n">
-        <v>2530</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="324">
@@ -4020,7 +4020,7 @@
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr"/>
       <c r="G324" t="n">
-        <v>2524</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="325">
@@ -4031,7 +4031,7 @@
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr"/>
       <c r="G325" t="n">
-        <v>1022</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="326">
@@ -4042,7 +4042,7 @@
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr"/>
       <c r="G326" t="n">
-        <v>1770</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="327">
@@ -4053,7 +4053,7 @@
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr"/>
       <c r="G327" t="n">
-        <v>1011</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="328">
@@ -4064,7 +4064,7 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="n">
-        <v>1408</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="329">
@@ -4075,7 +4075,7 @@
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr"/>
       <c r="G329" t="n">
-        <v>1963</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="330">
@@ -4086,7 +4086,7 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="n">
-        <v>1507</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="331">
@@ -4097,7 +4097,7 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="n">
-        <v>2888</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="332">
@@ -4108,7 +4108,7 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="n">
-        <v>516</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="333">
@@ -4119,7 +4119,7 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr"/>
       <c r="G333" t="n">
-        <v>1781</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="334">
@@ -4130,7 +4130,7 @@
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr"/>
       <c r="G334" t="n">
-        <v>1909</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="335">
@@ -4141,7 +4141,7 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr"/>
       <c r="G335" t="n">
-        <v>1656</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="336">
@@ -4152,7 +4152,7 @@
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr"/>
       <c r="G336" t="n">
-        <v>1943</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="337">
@@ -4163,7 +4163,7 @@
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr"/>
       <c r="G337" t="n">
-        <v>993</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="338">
@@ -4174,7 +4174,7 @@
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr"/>
       <c r="G338" t="n">
-        <v>2881</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="339">
@@ -4185,7 +4185,7 @@
       <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="n">
-        <v>1521</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="340">
@@ -4196,7 +4196,7 @@
       <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr"/>
       <c r="G340" t="n">
-        <v>1785</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="341">
@@ -4207,7 +4207,7 @@
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="n">
-        <v>1783</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="342">
@@ -4218,7 +4218,7 @@
       <c r="E342" t="inlineStr"/>
       <c r="F342" t="inlineStr"/>
       <c r="G342" t="n">
-        <v>2971</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="343">
@@ -4229,7 +4229,7 @@
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="n">
-        <v>2935</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="344">
@@ -4240,7 +4240,7 @@
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="inlineStr"/>
       <c r="G344" t="n">
-        <v>2347</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="345">
@@ -4251,7 +4251,7 @@
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="n">
-        <v>1787</v>
+        <v>516</v>
       </c>
     </row>
     <row r="346">
@@ -4262,7 +4262,7 @@
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr"/>
       <c r="G346" t="n">
-        <v>772</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="347">
@@ -4273,7 +4273,7 @@
       <c r="E347" t="inlineStr"/>
       <c r="F347" t="inlineStr"/>
       <c r="G347" t="n">
-        <v>2866</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="348">
@@ -4284,7 +4284,7 @@
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="inlineStr"/>
       <c r="G348" t="n">
-        <v>1012</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="349">
@@ -4295,7 +4295,7 @@
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr"/>
       <c r="G349" t="n">
-        <v>1784</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="350">
@@ -4306,7 +4306,7 @@
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="inlineStr"/>
       <c r="G350" t="n">
-        <v>2941</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="351">
@@ -4317,7 +4317,7 @@
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr"/>
       <c r="G351" t="n">
-        <v>1505</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="352">
